--- a/数据整理/stocks/A股/创业板/300893-松原股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300893-松原股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,17 +633,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -652,13 +673,331 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300893-松原股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300893-松原股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.27</v>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -991,13 +1034,157 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300893-松原股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300893-松原股份.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,6 +453,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -504,36 +588,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519125</t>
+          <t>519097</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合A</t>
+          <t>新华中小市值优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.31</t>
+          <t>90.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2218</t>
+          <t>0.0296</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +626,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519115</t>
+          <t>004222</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浦银安盛红利精选混合</t>
+          <t>金信民旺债券A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.18</t>
+          <t>21.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1251</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -580,36 +664,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519176</t>
+          <t>004402</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合C</t>
+          <t>金信民旺债券C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.31</t>
+          <t>21.44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1104</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -939,7 +1023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -996,36 +1080,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519097</t>
+          <t>519125</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新华中小市值优选混合</t>
+          <t>浦银安盛消费升级混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>84.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0296</t>
+          <t>0.2218</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1034,36 +1118,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004222</t>
+          <t>519115</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金信民旺债券A</t>
+          <t>浦银安盛红利精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.44</t>
+          <t>82.18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.1251</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1072,120 +1156,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004402</t>
+          <t>519176</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金信民旺债券C</t>
+          <t>浦银安盛消费升级混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21.44</t>
+          <t>84.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.1104</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.46</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300893-松原股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300893-松原股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -532,6 +549,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2879</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015406</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -701,7 +1040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1023,7 +1362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300893-松原股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300893-松原股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -549,6 +566,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -870,7 +1095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1040,7 +1265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1362,7 +1587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
